--- a/BusinessConnectManagement/obj/Release/Package/PackageTmp/Uploads/ExcelTemplate/Mentor.xlsx
+++ b/BusinessConnectManagement/obj/Release/Package/PackageTmp/Uploads/ExcelTemplate/Mentor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Captone Project 2022-2023\CaptoneSprint7\CapstoneProject\BusinessConnectManagement\Uploads\Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB9514B-B381-48CA-B5D6-1D8AA47D53C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D48F9A-6982-421E-A521-2845492E13A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
+    <workbookView minimized="1" xWindow="6204" yWindow="1392" windowWidth="12156" windowHeight="8160" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Email</t>
   </si>
@@ -54,13 +54,220 @@
   </si>
   <si>
     <t>Vai trò</t>
+  </si>
+  <si>
+    <t>Đặng Đình Hòa</t>
+  </si>
+  <si>
+    <t>Lý Thị Huyền Châu</t>
+  </si>
+  <si>
+    <t>Phan Thị Hồng</t>
+  </si>
+  <si>
+    <t>Huỳnh Thanh Tuấn</t>
+  </si>
+  <si>
+    <t>Trần Công Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Diễm Anh</t>
+  </si>
+  <si>
+    <t>Lê Công Hiếu</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trung</t>
+  </si>
+  <si>
+    <t>Ngô Quốc Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Tân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quyên</t>
+  </si>
+  <si>
+    <t>Hà Đồng Hưng</t>
+  </si>
+  <si>
+    <t>Phan Hồ Viết Trường</t>
+  </si>
+  <si>
+    <t>Trần Kim Mỹ Vân</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuyên Linh</t>
+  </si>
+  <si>
+    <t>Võ Anh Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Huyền Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thái Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Hồng Diên</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Đạt</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Linh</t>
+  </si>
+  <si>
+    <t>Bùi Minh Phụng</t>
+  </si>
+  <si>
+    <t>hoa.dd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>chau.lth@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hong.pt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>tuan.ht@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>thanh.tc@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>anh.ntd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hieu.lc@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>trung.nv@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>huy.nq@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>tan.nm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>quyen.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hung.hd@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>truong.phv@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>van.tkm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>linh.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>tien.va@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>trang.nth@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>hai.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>dien.nh@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenhoangdat@gmail.com</t>
+  </si>
+  <si>
+    <t>quang.nt@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>linh.ntm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>phung.bm@vlu.edu.vn</t>
+  </si>
+  <si>
+    <t>0123456789</t>
+  </si>
+  <si>
+    <t>0123456790</t>
+  </si>
+  <si>
+    <t>0123456791</t>
+  </si>
+  <si>
+    <t>0123456792</t>
+  </si>
+  <si>
+    <t>0123456793</t>
+  </si>
+  <si>
+    <t>0123456794</t>
+  </si>
+  <si>
+    <t>0123456795</t>
+  </si>
+  <si>
+    <t>0123456796</t>
+  </si>
+  <si>
+    <t>0123456797</t>
+  </si>
+  <si>
+    <t>0123456798</t>
+  </si>
+  <si>
+    <t>0123456799</t>
+  </si>
+  <si>
+    <t>0123456800</t>
+  </si>
+  <si>
+    <t>0123456801</t>
+  </si>
+  <si>
+    <t>0123456802</t>
+  </si>
+  <si>
+    <t>0123456803</t>
+  </si>
+  <si>
+    <t>0123456804</t>
+  </si>
+  <si>
+    <t>0123456805</t>
+  </si>
+  <si>
+    <t>0123456806</t>
+  </si>
+  <si>
+    <t>0123456807</t>
+  </si>
+  <si>
+    <t>0123456808</t>
+  </si>
+  <si>
+    <t>0123456809</t>
+  </si>
+  <si>
+    <t>0123456810</t>
+  </si>
+  <si>
+    <t>0123456811</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,16 +283,37 @@
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,15 +321,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,16 +668,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCDAC2E-CA66-4457-A8CB-0345096E4973}">
-  <dimension ref="A2:E17"/>
+  <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
@@ -432,7 +686,7 @@
     <col min="9" max="9" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -440,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -453,51 +707,356 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>16</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="mailto:hoa.dd@vlu.edu.vn" xr:uid="{8397BACC-B277-4345-AD0D-7E25BAE3A8B6}"/>
+    <hyperlink ref="B6" r:id="rId2" display="mailto:chau.lth@vlu.edu.vn" xr:uid="{9DA9C48C-BD9E-4DE0-BBB0-05E9CD3C1EC9}"/>
+    <hyperlink ref="B7" r:id="rId3" display="mailto:hong.pt@vlu.edu.vn" xr:uid="{E6134FB7-8A47-4D10-AE44-F5BB40A82D1B}"/>
+    <hyperlink ref="B8" r:id="rId4" display="mailto:tuan.ht@vlu.edu.vn" xr:uid="{CD59E967-A67D-41F5-8CE2-B00C0EAB5979}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{3810200F-ADF9-4D5A-8441-C22E8889C532}"/>
+    <hyperlink ref="B10" r:id="rId6" display="mailto:anh.ntd@vlu.edu.vn" xr:uid="{6011FCB2-2BFB-47CA-B4EE-1C43DAB9F72E}"/>
+    <hyperlink ref="B11" r:id="rId7" display="mailto:hieu.lc@vlu.edu.vn" xr:uid="{A5F43CB0-C63E-4AA9-9EF9-D9E6EF6C35D0}"/>
+    <hyperlink ref="B12" r:id="rId8" display="mailto:trung.nv@vlu.edu.vn" xr:uid="{41494A64-D1BC-41A1-ABF5-0D24C7935F2B}"/>
+    <hyperlink ref="B13" r:id="rId9" display="mailto:huy.nq@vlu.edu.vn" xr:uid="{2BC0525D-93CE-49CB-9021-407796B965F0}"/>
+    <hyperlink ref="B14" r:id="rId10" display="mailto:tan.nm@vlu.edu.vn" xr:uid="{9F1024FB-8A66-4F3A-AA4E-F27DA1C01EDB}"/>
+    <hyperlink ref="B15" r:id="rId11" display="mailto:quyen.nt@vlu.edu.vn" xr:uid="{4A7779A4-B819-4613-AECE-800E95BD7A21}"/>
+    <hyperlink ref="B16" r:id="rId12" display="mailto:hung.hd@vlu.edu.vn" xr:uid="{1869AB27-D08E-4E45-ACBD-1FFFFD3421CD}"/>
+    <hyperlink ref="B17" r:id="rId13" display="mailto:truong.phv@vlu.edu.vn" xr:uid="{B5962584-61B5-412F-BF51-EF70832750C1}"/>
+    <hyperlink ref="B18" r:id="rId14" display="mailto:van.tkm@vlu.edu.vn" xr:uid="{3D1B475E-7D7E-4C03-BA83-62FD3062B7BE}"/>
+    <hyperlink ref="B19" r:id="rId15" display="mailto:linh.nt@vlu.edu.vn" xr:uid="{B9A18EDC-4C06-4430-B744-7C0AB63FF4A5}"/>
+    <hyperlink ref="B20" r:id="rId16" display="mailto:tien.va@vlu.edu.vn" xr:uid="{4BDD9F4C-9875-4135-AE26-7AEBD8B5831A}"/>
+    <hyperlink ref="B21" r:id="rId17" display="mailto:trang.nth@vlu.edu.vn" xr:uid="{6574A55A-977B-4655-8E46-6A3B46DCE443}"/>
+    <hyperlink ref="B22" r:id="rId18" display="mailto:hai.nt@vlu.edu.vn" xr:uid="{385ABFAA-19F8-4E77-90F4-81EACE89F52E}"/>
+    <hyperlink ref="B23" r:id="rId19" display="mailto:dien.nh@vlu.edu.vn" xr:uid="{91534005-ECE7-409F-A76A-869DA4837D60}"/>
+    <hyperlink ref="B24" r:id="rId20" display="mailto:nguyenhoangdat@gmail.com" xr:uid="{C0F3AB00-86B2-4B5D-AA43-C97AC2AB8D4E}"/>
+    <hyperlink ref="B25" r:id="rId21" display="mailto:quang.nt@vlu.edu.vn" xr:uid="{26F084C0-B838-46AD-9A4D-E370BBD9F488}"/>
+    <hyperlink ref="B26" r:id="rId22" display="mailto:linh.ntm@vlu.edu.vn" xr:uid="{6D498D21-4F1E-4161-96A7-68D6222A2790}"/>
+    <hyperlink ref="B27" r:id="rId23" display="mailto:phung.bm@vlu.edu.vn" xr:uid="{C5515024-E73C-48F8-94B4-E5AD6A1ECCC1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BusinessConnectManagement/obj/Release/Package/PackageTmp/Uploads/ExcelTemplate/Mentor.xlsx
+++ b/BusinessConnectManagement/obj/Release/Package/PackageTmp/Uploads/ExcelTemplate/Mentor.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Captone Project 2022-2023\Captone\UpdateExportWord\CapstoneProject\BusinessConnectManagement\Uploads\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D48F9A-6982-421E-A521-2845492E13A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FCD316-E215-49C7-A4EE-84C023DC3DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6204" yWindow="1392" windowWidth="12156" windowHeight="8160" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73EFB606-6F5A-411F-AC44-ADCFE50567A5}"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -65,66 +65,6 @@
     <t>Phan Thị Hồng</t>
   </si>
   <si>
-    <t>Huỳnh Thanh Tuấn</t>
-  </si>
-  <si>
-    <t>Trần Công Thanh</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Diễm Anh</t>
-  </si>
-  <si>
-    <t>Lê Công Hiếu</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Trung</t>
-  </si>
-  <si>
-    <t>Ngô Quốc Huy</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Tân</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Quyên</t>
-  </si>
-  <si>
-    <t>Hà Đồng Hưng</t>
-  </si>
-  <si>
-    <t>Phan Hồ Viết Trường</t>
-  </si>
-  <si>
-    <t>Trần Kim Mỹ Vân</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuyên Linh</t>
-  </si>
-  <si>
-    <t>Võ Anh Tiến</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Huyền Trang</t>
-  </si>
-  <si>
-    <t>Nguyễn Thái Hải</t>
-  </si>
-  <si>
-    <t>Nguyễn Hồng Diên</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Đạt</t>
-  </si>
-  <si>
-    <t>Nguyễn Thế Quang</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mỹ Linh</t>
-  </si>
-  <si>
-    <t>Bùi Minh Phụng</t>
-  </si>
-  <si>
     <t>hoa.dd@vlu.edu.vn</t>
   </si>
   <si>
@@ -134,66 +74,6 @@
     <t>hong.pt@vlu.edu.vn</t>
   </si>
   <si>
-    <t>tuan.ht@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>thanh.tc@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>anh.ntd@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>hieu.lc@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>trung.nv@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>huy.nq@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>tan.nm@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>quyen.nt@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>hung.hd@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>truong.phv@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>van.tkm@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>linh.nt@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>tien.va@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>trang.nth@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>hai.nt@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>dien.nh@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>nguyenhoangdat@gmail.com</t>
-  </si>
-  <si>
-    <t>quang.nt@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>linh.ntm@vlu.edu.vn</t>
-  </si>
-  <si>
-    <t>phung.bm@vlu.edu.vn</t>
-  </si>
-  <si>
     <t>0123456789</t>
   </si>
   <si>
@@ -201,66 +81,6 @@
   </si>
   <si>
     <t>0123456791</t>
-  </si>
-  <si>
-    <t>0123456792</t>
-  </si>
-  <si>
-    <t>0123456793</t>
-  </si>
-  <si>
-    <t>0123456794</t>
-  </si>
-  <si>
-    <t>0123456795</t>
-  </si>
-  <si>
-    <t>0123456796</t>
-  </si>
-  <si>
-    <t>0123456797</t>
-  </si>
-  <si>
-    <t>0123456798</t>
-  </si>
-  <si>
-    <t>0123456799</t>
-  </si>
-  <si>
-    <t>0123456800</t>
-  </si>
-  <si>
-    <t>0123456801</t>
-  </si>
-  <si>
-    <t>0123456802</t>
-  </si>
-  <si>
-    <t>0123456803</t>
-  </si>
-  <si>
-    <t>0123456804</t>
-  </si>
-  <si>
-    <t>0123456805</t>
-  </si>
-  <si>
-    <t>0123456806</t>
-  </si>
-  <si>
-    <t>0123456807</t>
-  </si>
-  <si>
-    <t>0123456808</t>
-  </si>
-  <si>
-    <t>0123456809</t>
-  </si>
-  <si>
-    <t>0123456810</t>
-  </si>
-  <si>
-    <t>0123456811</t>
   </si>
 </sst>
 </file>
@@ -335,7 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -353,6 +173,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -670,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCDAC2E-CA66-4457-A8CB-0345096E4973}">
   <dimension ref="A2:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,13 +543,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -727,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -741,321 +571,141 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="mailto:hoa.dd@vlu.edu.vn" xr:uid="{8397BACC-B277-4345-AD0D-7E25BAE3A8B6}"/>
+    <hyperlink ref="B7" r:id="rId1" display="mailto:hong.pt@vlu.edu.vn" xr:uid="{E6134FB7-8A47-4D10-AE44-F5BB40A82D1B}"/>
     <hyperlink ref="B6" r:id="rId2" display="mailto:chau.lth@vlu.edu.vn" xr:uid="{9DA9C48C-BD9E-4DE0-BBB0-05E9CD3C1EC9}"/>
-    <hyperlink ref="B7" r:id="rId3" display="mailto:hong.pt@vlu.edu.vn" xr:uid="{E6134FB7-8A47-4D10-AE44-F5BB40A82D1B}"/>
-    <hyperlink ref="B8" r:id="rId4" display="mailto:tuan.ht@vlu.edu.vn" xr:uid="{CD59E967-A67D-41F5-8CE2-B00C0EAB5979}"/>
-    <hyperlink ref="B9" r:id="rId5" xr:uid="{3810200F-ADF9-4D5A-8441-C22E8889C532}"/>
-    <hyperlink ref="B10" r:id="rId6" display="mailto:anh.ntd@vlu.edu.vn" xr:uid="{6011FCB2-2BFB-47CA-B4EE-1C43DAB9F72E}"/>
-    <hyperlink ref="B11" r:id="rId7" display="mailto:hieu.lc@vlu.edu.vn" xr:uid="{A5F43CB0-C63E-4AA9-9EF9-D9E6EF6C35D0}"/>
-    <hyperlink ref="B12" r:id="rId8" display="mailto:trung.nv@vlu.edu.vn" xr:uid="{41494A64-D1BC-41A1-ABF5-0D24C7935F2B}"/>
-    <hyperlink ref="B13" r:id="rId9" display="mailto:huy.nq@vlu.edu.vn" xr:uid="{2BC0525D-93CE-49CB-9021-407796B965F0}"/>
-    <hyperlink ref="B14" r:id="rId10" display="mailto:tan.nm@vlu.edu.vn" xr:uid="{9F1024FB-8A66-4F3A-AA4E-F27DA1C01EDB}"/>
-    <hyperlink ref="B15" r:id="rId11" display="mailto:quyen.nt@vlu.edu.vn" xr:uid="{4A7779A4-B819-4613-AECE-800E95BD7A21}"/>
-    <hyperlink ref="B16" r:id="rId12" display="mailto:hung.hd@vlu.edu.vn" xr:uid="{1869AB27-D08E-4E45-ACBD-1FFFFD3421CD}"/>
-    <hyperlink ref="B17" r:id="rId13" display="mailto:truong.phv@vlu.edu.vn" xr:uid="{B5962584-61B5-412F-BF51-EF70832750C1}"/>
-    <hyperlink ref="B18" r:id="rId14" display="mailto:van.tkm@vlu.edu.vn" xr:uid="{3D1B475E-7D7E-4C03-BA83-62FD3062B7BE}"/>
-    <hyperlink ref="B19" r:id="rId15" display="mailto:linh.nt@vlu.edu.vn" xr:uid="{B9A18EDC-4C06-4430-B744-7C0AB63FF4A5}"/>
-    <hyperlink ref="B20" r:id="rId16" display="mailto:tien.va@vlu.edu.vn" xr:uid="{4BDD9F4C-9875-4135-AE26-7AEBD8B5831A}"/>
-    <hyperlink ref="B21" r:id="rId17" display="mailto:trang.nth@vlu.edu.vn" xr:uid="{6574A55A-977B-4655-8E46-6A3B46DCE443}"/>
-    <hyperlink ref="B22" r:id="rId18" display="mailto:hai.nt@vlu.edu.vn" xr:uid="{385ABFAA-19F8-4E77-90F4-81EACE89F52E}"/>
-    <hyperlink ref="B23" r:id="rId19" display="mailto:dien.nh@vlu.edu.vn" xr:uid="{91534005-ECE7-409F-A76A-869DA4837D60}"/>
-    <hyperlink ref="B24" r:id="rId20" display="mailto:nguyenhoangdat@gmail.com" xr:uid="{C0F3AB00-86B2-4B5D-AA43-C97AC2AB8D4E}"/>
-    <hyperlink ref="B25" r:id="rId21" display="mailto:quang.nt@vlu.edu.vn" xr:uid="{26F084C0-B838-46AD-9A4D-E370BBD9F488}"/>
-    <hyperlink ref="B26" r:id="rId22" display="mailto:linh.ntm@vlu.edu.vn" xr:uid="{6D498D21-4F1E-4161-96A7-68D6222A2790}"/>
-    <hyperlink ref="B27" r:id="rId23" display="mailto:phung.bm@vlu.edu.vn" xr:uid="{C5515024-E73C-48F8-94B4-E5AD6A1ECCC1}"/>
+    <hyperlink ref="B5" r:id="rId3" display="mailto:hoa.dd@vlu.edu.vn" xr:uid="{8397BACC-B277-4345-AD0D-7E25BAE3A8B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
